--- a/画面項目定義/add画面項目定義.xlsx
+++ b/画面項目定義/add画面項目定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B32E18-CBA2-4CCF-9622-E4BCD94AB6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839B7B1-2D7F-4FFE-8FB0-927C3CC0826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{CF5DE0E2-CADD-4487-8704-BD8C57426A6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>項目名</t>
   </si>
@@ -137,7 +137,15 @@
     <t>「送信」</t>
   </si>
   <si>
-    <t>フォームデータをサーバーにPOST送信</t>
+    <t>入力値をサーバーに送信</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルに保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -539,7 +547,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -548,7 +556,7 @@
     <col min="6" max="6" width="27.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -608,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -628,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -648,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -668,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -688,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -708,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -725,10 +733,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -745,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/add画面項目定義.xlsx
+++ b/画面項目定義/add画面項目定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839B7B1-2D7F-4FFE-8FB0-927C3CC0826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54440339-7E74-4E64-A362-A039658A2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{CF5DE0E2-CADD-4487-8704-BD8C57426A6F}"/>
   </bookViews>
@@ -141,8 +141,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テーブルに保存</t>
-    <rPh sb="5" eb="7">
+    <t>ユーザー情報テーブルに保存</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -547,7 +550,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
